--- a/WinFormSample/ReverseReference/RR18_Excel/RR18_ExcelGridFileSample.xlsx
+++ b/WinFormSample/ReverseReference/RR18_Excel/RR18_ExcelGridFileSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophia\source\repos\WinFormSolution\WinFormGUI\WinFormSample\ReverseReference\RR18_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92512C6-3CE8-47A7-818A-B4F2CDCA65EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3D9370-9170-4A64-B04A-34ABA84B972C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="880" windowWidth="14400" windowHeight="9020" xr2:uid="{F4BB7DAC-5F4C-4E6E-B293-3B04592D8DC0}"/>
+    <workbookView xWindow="420" yWindow="100" windowWidth="14400" windowHeight="8900" xr2:uid="{F4BB7DAC-5F4C-4E6E-B293-3B04592D8DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,12 +101,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,8 +129,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,7 +452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFBA152-E368-49FB-BEF4-779094D107D5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -451,13 +462,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/WinFormSample/ReverseReference/RR18_Excel/RR18_ExcelGridFileSample.xlsx
+++ b/WinFormSample/ReverseReference/RR18_Excel/RR18_ExcelGridFileSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophia\source\repos\WinFormSolution\WinFormGUI\WinFormSample\ReverseReference\RR18_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3D9370-9170-4A64-B04A-34ABA84B972C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241D0393-8995-4F21-A8A5-F1986C4D80CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="100" windowWidth="14400" windowHeight="8900" xr2:uid="{F4BB7DAC-5F4C-4E6E-B293-3B04592D8DC0}"/>
   </bookViews>
@@ -115,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -123,17 +123,176 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFBA152-E368-49FB-BEF4-779094D107D5}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -461,50 +620,51 @@
     <col min="2" max="2" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>2900</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>2380</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+    <row r="4" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>3000</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
